--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Jag1-Cd46.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Jag1-Cd46.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H2">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I2">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J2">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.30703293734228</v>
+        <v>3.727027666666667</v>
       </c>
       <c r="N2">
-        <v>3.30703293734228</v>
+        <v>11.181083</v>
       </c>
       <c r="O2">
-        <v>0.1703885484698535</v>
+        <v>0.1684786767188367</v>
       </c>
       <c r="P2">
-        <v>0.1703885484698535</v>
+        <v>0.1684786767188367</v>
       </c>
       <c r="Q2">
-        <v>24.22757596204201</v>
+        <v>33.30727348562755</v>
       </c>
       <c r="R2">
-        <v>24.22757596204201</v>
+        <v>299.765461370648</v>
       </c>
       <c r="S2">
-        <v>0.02888232795788951</v>
+        <v>0.0317974961548828</v>
       </c>
       <c r="T2">
-        <v>0.02888232795788951</v>
+        <v>0.03179749615488278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H3">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I3">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J3">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.408638206650449</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N3">
-        <v>0.408638206650449</v>
+        <v>1.76074</v>
       </c>
       <c r="O3">
-        <v>0.02105430220977796</v>
+        <v>0.02653116386363687</v>
       </c>
       <c r="P3">
-        <v>0.02105430220977796</v>
+        <v>0.02653116386363686</v>
       </c>
       <c r="Q3">
-        <v>2.993714722591432</v>
+        <v>5.245059777937779</v>
       </c>
       <c r="R3">
-        <v>2.993714722591432</v>
+        <v>47.20553800144</v>
       </c>
       <c r="S3">
-        <v>0.003568885742664297</v>
+        <v>0.005007307733942082</v>
       </c>
       <c r="T3">
-        <v>0.003568885742664297</v>
+        <v>0.00500730773394208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H4">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I4">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J4">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.5240622081218</v>
+        <v>0.4571283333333334</v>
       </c>
       <c r="N4">
-        <v>14.5240622081218</v>
+        <v>1.371385</v>
       </c>
       <c r="O4">
-        <v>0.7483245327204289</v>
+        <v>0.02066428896664678</v>
       </c>
       <c r="P4">
-        <v>0.7483245327204289</v>
+        <v>0.02066428896664677</v>
       </c>
       <c r="Q4">
-        <v>106.4043894003329</v>
+        <v>4.085212071951111</v>
       </c>
       <c r="R4">
-        <v>106.4043894003329</v>
+        <v>36.76690864756</v>
       </c>
       <c r="S4">
-        <v>0.1268474599206404</v>
+        <v>0.00390003448363311</v>
       </c>
       <c r="T4">
-        <v>0.1268474599206404</v>
+        <v>0.003900034483633109</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H5">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I5">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J5">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.1690412811607</v>
+        <v>0.5789353333333332</v>
       </c>
       <c r="N5">
-        <v>1.1690412811607</v>
+        <v>1.736806</v>
       </c>
       <c r="O5">
-        <v>0.06023261659993959</v>
+        <v>0.02617052181772873</v>
       </c>
       <c r="P5">
-        <v>0.06023261659993959</v>
+        <v>0.02617052181772873</v>
       </c>
       <c r="Q5">
-        <v>8.564485742571943</v>
+        <v>5.173762902348444</v>
       </c>
       <c r="R5">
-        <v>8.564485742571943</v>
+        <v>46.56386612113599</v>
       </c>
       <c r="S5">
-        <v>0.01020994780473213</v>
+        <v>0.004939242657153816</v>
       </c>
       <c r="T5">
-        <v>0.01020994780473213</v>
+        <v>0.004939242657153814</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.6774194795853</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H6">
-        <v>11.6774194795853</v>
+        <v>26.810056</v>
       </c>
       <c r="I6">
-        <v>0.270188729853607</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J6">
-        <v>0.270188729853607</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.30703293734228</v>
+        <v>15.33829433333333</v>
       </c>
       <c r="N6">
-        <v>3.30703293734228</v>
+        <v>46.014883</v>
       </c>
       <c r="O6">
-        <v>0.1703885484698535</v>
+        <v>0.6933609738173031</v>
       </c>
       <c r="P6">
-        <v>0.1703885484698535</v>
+        <v>0.693360973817303</v>
       </c>
       <c r="Q6">
-        <v>38.61761084215094</v>
+        <v>137.0735100070498</v>
       </c>
       <c r="R6">
-        <v>38.61761084215094</v>
+        <v>1233.661590063448</v>
       </c>
       <c r="S6">
-        <v>0.04603706549266949</v>
+        <v>0.130860138079637</v>
       </c>
       <c r="T6">
-        <v>0.04603706549266949</v>
+        <v>0.1308601380796369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.6774194795853</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H7">
-        <v>11.6774194795853</v>
+        <v>26.810056</v>
       </c>
       <c r="I7">
-        <v>0.270188729853607</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J7">
-        <v>0.270188729853607</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.408638206650449</v>
+        <v>1.433359</v>
       </c>
       <c r="N7">
-        <v>0.408638206650449</v>
+        <v>4.300077</v>
       </c>
       <c r="O7">
-        <v>0.02105430220977796</v>
+        <v>0.0647943748158479</v>
       </c>
       <c r="P7">
-        <v>0.02105430220977796</v>
+        <v>0.06479437481584789</v>
       </c>
       <c r="Q7">
-        <v>4.771839754442756</v>
+        <v>12.80947835270133</v>
       </c>
       <c r="R7">
-        <v>4.771839754442756</v>
+        <v>115.285305174312</v>
       </c>
       <c r="S7">
-        <v>0.005688635172013898</v>
+        <v>0.01222884061170103</v>
       </c>
       <c r="T7">
-        <v>0.005688635172013898</v>
+        <v>0.01222884061170102</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H8">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I8">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J8">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.5240622081218</v>
+        <v>3.727027666666667</v>
       </c>
       <c r="N8">
-        <v>14.5240622081218</v>
+        <v>11.181083</v>
       </c>
       <c r="O8">
-        <v>0.7483245327204289</v>
+        <v>0.1684786767188367</v>
       </c>
       <c r="P8">
-        <v>0.7483245327204289</v>
+        <v>0.1684786767188367</v>
       </c>
       <c r="Q8">
-        <v>169.6035669518302</v>
+        <v>43.79851099606378</v>
       </c>
       <c r="R8">
-        <v>169.6035669518302</v>
+        <v>394.186598964574</v>
       </c>
       <c r="S8">
-        <v>0.2021888550140267</v>
+        <v>0.04181317890183618</v>
       </c>
       <c r="T8">
-        <v>0.2021888550140267</v>
+        <v>0.04181317890183617</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H9">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I9">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J9">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.1690412811607</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N9">
-        <v>1.1690412811607</v>
+        <v>1.76074</v>
       </c>
       <c r="O9">
-        <v>0.06023261659993959</v>
+        <v>0.02653116386363687</v>
       </c>
       <c r="P9">
-        <v>0.06023261659993959</v>
+        <v>0.02653116386363686</v>
       </c>
       <c r="Q9">
-        <v>13.65138542906531</v>
+        <v>6.89716642396889</v>
       </c>
       <c r="R9">
-        <v>13.65138542906531</v>
+        <v>62.07449781572001</v>
       </c>
       <c r="S9">
-        <v>0.01627417417489696</v>
+        <v>0.006584526438057839</v>
       </c>
       <c r="T9">
-        <v>0.01627417417489696</v>
+        <v>0.006584526438057836</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.11714511615556</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H10">
-        <v>2.11714511615556</v>
+        <v>35.254778</v>
       </c>
       <c r="I10">
-        <v>0.04898588689477759</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J10">
-        <v>0.04898588689477759</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.30703293734228</v>
+        <v>0.4571283333333334</v>
       </c>
       <c r="N10">
-        <v>3.30703293734228</v>
+        <v>1.371385</v>
       </c>
       <c r="O10">
-        <v>0.1703885484698535</v>
+        <v>0.02066428896664678</v>
       </c>
       <c r="P10">
-        <v>0.1703885484698535</v>
+        <v>0.02066428896664677</v>
       </c>
       <c r="Q10">
-        <v>7.001468632259785</v>
+        <v>5.371985969725556</v>
       </c>
       <c r="R10">
-        <v>7.001468632259785</v>
+        <v>48.34787372753001</v>
       </c>
       <c r="S10">
-        <v>0.008346634163509576</v>
+        <v>0.0051284805191317</v>
       </c>
       <c r="T10">
-        <v>0.008346634163509576</v>
+        <v>0.005128480519131697</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.11714511615556</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H11">
-        <v>2.11714511615556</v>
+        <v>35.254778</v>
       </c>
       <c r="I11">
-        <v>0.04898588689477759</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J11">
-        <v>0.04898588689477759</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.408638206650449</v>
+        <v>0.5789353333333332</v>
       </c>
       <c r="N11">
-        <v>0.408638206650449</v>
+        <v>1.736806</v>
       </c>
       <c r="O11">
-        <v>0.02105430220977796</v>
+        <v>0.02617052181772873</v>
       </c>
       <c r="P11">
-        <v>0.02105430220977796</v>
+        <v>0.02617052181772873</v>
       </c>
       <c r="Q11">
-        <v>0.8651463834845646</v>
+        <v>6.803412217674222</v>
       </c>
       <c r="R11">
-        <v>0.8651463834845646</v>
+        <v>61.230709959068</v>
       </c>
       <c r="S11">
-        <v>0.001031363666696649</v>
+        <v>0.006495021993467224</v>
       </c>
       <c r="T11">
-        <v>0.001031363666696649</v>
+        <v>0.006495021993467222</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.11714511615556</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H12">
-        <v>2.11714511615556</v>
+        <v>35.254778</v>
       </c>
       <c r="I12">
-        <v>0.04898588689477759</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J12">
-        <v>0.04898588689477759</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.5240622081218</v>
+        <v>15.33829433333333</v>
       </c>
       <c r="N12">
-        <v>14.5240622081218</v>
+        <v>46.014883</v>
       </c>
       <c r="O12">
-        <v>0.7483245327204289</v>
+        <v>0.6933609738173031</v>
       </c>
       <c r="P12">
-        <v>0.7483245327204289</v>
+        <v>0.693360973817303</v>
       </c>
       <c r="Q12">
-        <v>30.74954737066461</v>
+        <v>180.2493872067749</v>
       </c>
       <c r="R12">
-        <v>30.74954737066461</v>
+        <v>1622.244484860974</v>
       </c>
       <c r="S12">
-        <v>0.03665734092043022</v>
+        <v>0.1720789064016482</v>
       </c>
       <c r="T12">
-        <v>0.03665734092043022</v>
+        <v>0.1720789064016482</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.11714511615556</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H13">
-        <v>2.11714511615556</v>
+        <v>35.254778</v>
       </c>
       <c r="I13">
-        <v>0.04898588689477759</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J13">
-        <v>0.04898588689477759</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.1690412811607</v>
+        <v>1.433359</v>
       </c>
       <c r="N13">
-        <v>1.1690412811607</v>
+        <v>4.300077</v>
       </c>
       <c r="O13">
-        <v>0.06023261659993959</v>
+        <v>0.0647943748158479</v>
       </c>
       <c r="P13">
-        <v>0.06023261659993959</v>
+        <v>0.06479437481584789</v>
       </c>
       <c r="Q13">
-        <v>2.475030038993615</v>
+        <v>16.84425111310067</v>
       </c>
       <c r="R13">
-        <v>2.475030038993615</v>
+        <v>151.598260017906</v>
       </c>
       <c r="S13">
-        <v>0.002950548144141144</v>
+        <v>0.01608072213511616</v>
       </c>
       <c r="T13">
-        <v>0.002950548144141144</v>
+        <v>0.01608072213511616</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.527425629069</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H14">
-        <v>1.527425629069</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I14">
-        <v>0.03534112920970925</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J14">
-        <v>0.03534112920970925</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.30703293734228</v>
+        <v>3.727027666666667</v>
       </c>
       <c r="N14">
-        <v>3.30703293734228</v>
+        <v>11.181083</v>
       </c>
       <c r="O14">
-        <v>0.1703885484698535</v>
+        <v>0.1684786767188367</v>
       </c>
       <c r="P14">
-        <v>0.1703885484698535</v>
+        <v>0.1684786767188367</v>
       </c>
       <c r="Q14">
-        <v>5.051246864671936</v>
+        <v>10.71517969481556</v>
       </c>
       <c r="R14">
-        <v>5.051246864671936</v>
+        <v>96.43661725334002</v>
       </c>
       <c r="S14">
-        <v>0.006021723707327902</v>
+        <v>0.01022947391030966</v>
       </c>
       <c r="T14">
-        <v>0.006021723707327902</v>
+        <v>0.01022947391030966</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.527425629069</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H15">
-        <v>1.527425629069</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I15">
-        <v>0.03534112920970925</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J15">
-        <v>0.03534112920970925</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.408638206650449</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N15">
-        <v>0.408638206650449</v>
+        <v>1.76074</v>
       </c>
       <c r="O15">
-        <v>0.02105430220977796</v>
+        <v>0.02653116386363687</v>
       </c>
       <c r="P15">
-        <v>0.02105430220977796</v>
+        <v>0.02653116386363686</v>
       </c>
       <c r="Q15">
-        <v>0.6241644698546901</v>
+        <v>1.687371920577778</v>
       </c>
       <c r="R15">
-        <v>0.6241644698546901</v>
+        <v>15.1863472852</v>
       </c>
       <c r="S15">
-        <v>0.0007440828148160297</v>
+        <v>0.001610885447575931</v>
       </c>
       <c r="T15">
-        <v>0.0007440828148160297</v>
+        <v>0.001610885447575931</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.527425629069</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H16">
-        <v>1.527425629069</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I16">
-        <v>0.03534112920970925</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J16">
-        <v>0.03534112920970925</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.5240622081218</v>
+        <v>0.4571283333333334</v>
       </c>
       <c r="N16">
-        <v>14.5240622081218</v>
+        <v>1.371385</v>
       </c>
       <c r="O16">
-        <v>0.7483245327204289</v>
+        <v>0.02066428896664678</v>
       </c>
       <c r="P16">
-        <v>0.7483245327204289</v>
+        <v>0.02066428896664677</v>
       </c>
       <c r="Q16">
-        <v>22.18442485487773</v>
+        <v>1.314240910811111</v>
       </c>
       <c r="R16">
-        <v>22.18442485487773</v>
+        <v>11.8281681973</v>
       </c>
       <c r="S16">
-        <v>0.02644663400166797</v>
+        <v>0.001254668002955529</v>
       </c>
       <c r="T16">
-        <v>0.02644663400166797</v>
+        <v>0.001254668002955529</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.527425629069</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H17">
-        <v>1.527425629069</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I17">
-        <v>0.03534112920970925</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J17">
-        <v>0.03534112920970925</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.1690412811607</v>
+        <v>0.5789353333333332</v>
       </c>
       <c r="N17">
-        <v>1.1690412811607</v>
+        <v>1.736806</v>
       </c>
       <c r="O17">
-        <v>0.06023261659993959</v>
+        <v>0.02617052181772873</v>
       </c>
       <c r="P17">
-        <v>0.06023261659993959</v>
+        <v>0.02617052181772873</v>
       </c>
       <c r="Q17">
-        <v>1.785623614284512</v>
+        <v>1.664435223764444</v>
       </c>
       <c r="R17">
-        <v>1.785623614284512</v>
+        <v>14.97991701388</v>
       </c>
       <c r="S17">
-        <v>0.002128688685897343</v>
+        <v>0.00158898844273576</v>
       </c>
       <c r="T17">
-        <v>0.002128688685897343</v>
+        <v>0.00158898844273576</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.69835919013492</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H18">
-        <v>5.69835919013492</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I18">
-        <v>0.1318469747981392</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J18">
-        <v>0.1318469747981392</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.30703293734228</v>
+        <v>15.33829433333333</v>
       </c>
       <c r="N18">
-        <v>3.30703293734228</v>
+        <v>46.014883</v>
       </c>
       <c r="O18">
-        <v>0.1703885484698535</v>
+        <v>0.6933609738173031</v>
       </c>
       <c r="P18">
-        <v>0.1703885484698535</v>
+        <v>0.693360973817303</v>
       </c>
       <c r="Q18">
-        <v>18.84466153058326</v>
+        <v>44.09749395303778</v>
       </c>
       <c r="R18">
-        <v>18.84466153058326</v>
+        <v>396.87744557734</v>
       </c>
       <c r="S18">
-        <v>0.0224652146559963</v>
+        <v>0.0420986093327857</v>
       </c>
       <c r="T18">
-        <v>0.0224652146559963</v>
+        <v>0.04209860933278569</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.69835919013492</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H19">
-        <v>5.69835919013492</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I19">
-        <v>0.1318469747981392</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J19">
-        <v>0.1318469747981392</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.408638206650449</v>
+        <v>1.433359</v>
       </c>
       <c r="N19">
-        <v>0.408638206650449</v>
+        <v>4.300077</v>
       </c>
       <c r="O19">
-        <v>0.02105430220977796</v>
+        <v>0.0647943748158479</v>
       </c>
       <c r="P19">
-        <v>0.02105430220977796</v>
+        <v>0.06479437481584789</v>
       </c>
       <c r="Q19">
-        <v>2.328567280306839</v>
+        <v>4.120897569273334</v>
       </c>
       <c r="R19">
-        <v>2.328567280306839</v>
+        <v>37.08807812346</v>
       </c>
       <c r="S19">
-        <v>0.002775946052845001</v>
+        <v>0.003934102401692452</v>
       </c>
       <c r="T19">
-        <v>0.002775946052845001</v>
+        <v>0.003934102401692451</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.69835919013492</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H20">
-        <v>5.69835919013492</v>
+        <v>4.802204</v>
       </c>
       <c r="I20">
-        <v>0.1318469747981392</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J20">
-        <v>0.1318469747981392</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.5240622081218</v>
+        <v>3.727027666666667</v>
       </c>
       <c r="N20">
-        <v>14.5240622081218</v>
+        <v>11.181083</v>
       </c>
       <c r="O20">
-        <v>0.7483245327204289</v>
+        <v>0.1684786767188367</v>
       </c>
       <c r="P20">
-        <v>0.7483245327204289</v>
+        <v>0.1684786767188367</v>
       </c>
       <c r="Q20">
-        <v>82.76332336174214</v>
+        <v>5.965982389659112</v>
       </c>
       <c r="R20">
-        <v>82.76332336174214</v>
+        <v>53.693841506932</v>
       </c>
       <c r="S20">
-        <v>0.09866432580641968</v>
+        <v>0.005695551819248821</v>
       </c>
       <c r="T20">
-        <v>0.09866432580641968</v>
+        <v>0.005695551819248819</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.69835919013492</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H21">
-        <v>5.69835919013492</v>
+        <v>4.802204</v>
       </c>
       <c r="I21">
-        <v>0.1318469747981392</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J21">
-        <v>0.1318469747981392</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.1690412811607</v>
+        <v>0.5869133333333334</v>
       </c>
       <c r="N21">
-        <v>1.1690412811607</v>
+        <v>1.76074</v>
       </c>
       <c r="O21">
-        <v>0.06023261659993959</v>
+        <v>0.02653116386363687</v>
       </c>
       <c r="P21">
-        <v>0.06023261659993959</v>
+        <v>0.02653116386363686</v>
       </c>
       <c r="Q21">
-        <v>6.661617128149176</v>
+        <v>0.9394925189955556</v>
       </c>
       <c r="R21">
-        <v>6.661617128149176</v>
+        <v>8.455432670960001</v>
       </c>
       <c r="S21">
-        <v>0.007941488282878216</v>
+        <v>0.0008969064902053022</v>
       </c>
       <c r="T21">
-        <v>0.007941488282878216</v>
+        <v>0.0008969064902053017</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.8730655585187</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H22">
-        <v>14.8730655585187</v>
+        <v>4.802204</v>
       </c>
       <c r="I22">
-        <v>0.3441286578178406</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J22">
-        <v>0.3441286578178406</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.30703293734228</v>
+        <v>0.4571283333333334</v>
       </c>
       <c r="N22">
-        <v>3.30703293734228</v>
+        <v>1.371385</v>
       </c>
       <c r="O22">
-        <v>0.1703885484698535</v>
+        <v>0.02066428896664678</v>
       </c>
       <c r="P22">
-        <v>0.1703885484698535</v>
+        <v>0.02066428896664677</v>
       </c>
       <c r="Q22">
-        <v>49.1857176812724</v>
+        <v>0.7317411702822223</v>
       </c>
       <c r="R22">
-        <v>49.1857176812724</v>
+        <v>6.58567053254</v>
       </c>
       <c r="S22">
-        <v>0.05863558249246077</v>
+        <v>0.0006985722520475473</v>
       </c>
       <c r="T22">
-        <v>0.05863558249246077</v>
+        <v>0.0006985722520475468</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.8730655585187</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H23">
-        <v>14.8730655585187</v>
+        <v>4.802204</v>
       </c>
       <c r="I23">
-        <v>0.3441286578178406</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J23">
-        <v>0.3441286578178406</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.408638206650449</v>
+        <v>0.5789353333333332</v>
       </c>
       <c r="N23">
-        <v>0.408638206650449</v>
+        <v>1.736806</v>
       </c>
       <c r="O23">
-        <v>0.02105430220977796</v>
+        <v>0.02617052181772873</v>
       </c>
       <c r="P23">
-        <v>0.02105430220977796</v>
+        <v>0.02617052181772873</v>
       </c>
       <c r="Q23">
-        <v>6.07770283722764</v>
+        <v>0.9267218578248887</v>
       </c>
       <c r="R23">
-        <v>6.07770283722764</v>
+        <v>8.340496720423999</v>
       </c>
       <c r="S23">
-        <v>0.007245388760742083</v>
+        <v>0.000884714707240995</v>
       </c>
       <c r="T23">
-        <v>0.007245388760742083</v>
+        <v>0.0008847147072409947</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.8730655585187</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H24">
-        <v>14.8730655585187</v>
+        <v>4.802204</v>
       </c>
       <c r="I24">
-        <v>0.3441286578178406</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J24">
-        <v>0.3441286578178406</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.5240622081218</v>
+        <v>15.33829433333333</v>
       </c>
       <c r="N24">
-        <v>14.5240622081218</v>
+        <v>46.014883</v>
       </c>
       <c r="O24">
-        <v>0.7483245327204289</v>
+        <v>0.6933609738173031</v>
       </c>
       <c r="P24">
-        <v>0.7483245327204289</v>
+        <v>0.693360973817303</v>
       </c>
       <c r="Q24">
-        <v>216.0173293973994</v>
+        <v>24.55253946690355</v>
       </c>
       <c r="R24">
-        <v>216.0173293973994</v>
+        <v>220.972855202132</v>
       </c>
       <c r="S24">
-        <v>0.2575199170572439</v>
+        <v>0.02343960335355454</v>
       </c>
       <c r="T24">
-        <v>0.2575199170572439</v>
+        <v>0.02343960335355453</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.8730655585187</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H25">
-        <v>14.8730655585187</v>
+        <v>4.802204</v>
       </c>
       <c r="I25">
-        <v>0.3441286578178406</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J25">
-        <v>0.3441286578178406</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.1690412811607</v>
+        <v>1.433359</v>
       </c>
       <c r="N25">
-        <v>1.1690412811607</v>
+        <v>4.300077</v>
       </c>
       <c r="O25">
-        <v>0.06023261659993959</v>
+        <v>0.0647943748158479</v>
       </c>
       <c r="P25">
-        <v>0.06023261659993959</v>
+        <v>0.06479437481584789</v>
       </c>
       <c r="Q25">
-        <v>17.38722761531778</v>
+        <v>2.294427441078667</v>
       </c>
       <c r="R25">
-        <v>17.38722761531778</v>
+        <v>20.649846969708</v>
       </c>
       <c r="S25">
-        <v>0.0207277695073938</v>
+        <v>0.002190423895454493</v>
       </c>
       <c r="T25">
-        <v>0.0207277695073938</v>
+        <v>0.002190423895454493</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.755183333333334</v>
+      </c>
+      <c r="H26">
+        <v>17.26555</v>
+      </c>
+      <c r="I26">
+        <v>0.1215432030155045</v>
+      </c>
+      <c r="J26">
+        <v>0.1215432030155045</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.727027666666667</v>
+      </c>
+      <c r="N26">
+        <v>11.181083</v>
+      </c>
+      <c r="O26">
+        <v>0.1684786767188367</v>
+      </c>
+      <c r="P26">
+        <v>0.1684786767188367</v>
+      </c>
+      <c r="Q26">
+        <v>21.44972751007223</v>
+      </c>
+      <c r="R26">
+        <v>193.04754759065</v>
+      </c>
+      <c r="S26">
+        <v>0.02047743800822112</v>
+      </c>
+      <c r="T26">
+        <v>0.02047743800822112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>5.755183333333334</v>
+      </c>
+      <c r="H27">
+        <v>17.26555</v>
+      </c>
+      <c r="I27">
+        <v>0.1215432030155045</v>
+      </c>
+      <c r="J27">
+        <v>0.1215432030155045</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.5869133333333334</v>
+      </c>
+      <c r="N27">
+        <v>1.76074</v>
+      </c>
+      <c r="O27">
+        <v>0.02653116386363687</v>
+      </c>
+      <c r="P27">
+        <v>0.02653116386363686</v>
+      </c>
+      <c r="Q27">
+        <v>3.377793834111112</v>
+      </c>
+      <c r="R27">
+        <v>30.400144507</v>
+      </c>
+      <c r="S27">
+        <v>0.003224682635715633</v>
+      </c>
+      <c r="T27">
+        <v>0.003224682635715632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>5.755183333333334</v>
+      </c>
+      <c r="H28">
+        <v>17.26555</v>
+      </c>
+      <c r="I28">
+        <v>0.1215432030155045</v>
+      </c>
+      <c r="J28">
+        <v>0.1215432030155045</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.4571283333333334</v>
+      </c>
+      <c r="N28">
+        <v>1.371385</v>
+      </c>
+      <c r="O28">
+        <v>0.02066428896664678</v>
+      </c>
+      <c r="P28">
+        <v>0.02066428896664677</v>
+      </c>
+      <c r="Q28">
+        <v>2.630857365194445</v>
+      </c>
+      <c r="R28">
+        <v>23.67771628675</v>
+      </c>
+      <c r="S28">
+        <v>0.0025116038690442</v>
+      </c>
+      <c r="T28">
+        <v>0.002511603869044198</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>5.755183333333334</v>
+      </c>
+      <c r="H29">
+        <v>17.26555</v>
+      </c>
+      <c r="I29">
+        <v>0.1215432030155045</v>
+      </c>
+      <c r="J29">
+        <v>0.1215432030155045</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.5789353333333332</v>
+      </c>
+      <c r="N29">
+        <v>1.736806</v>
+      </c>
+      <c r="O29">
+        <v>0.02617052181772873</v>
+      </c>
+      <c r="P29">
+        <v>0.02617052181772873</v>
+      </c>
+      <c r="Q29">
+        <v>3.331878981477778</v>
+      </c>
+      <c r="R29">
+        <v>29.9869108333</v>
+      </c>
+      <c r="S29">
+        <v>0.003180849046313894</v>
+      </c>
+      <c r="T29">
+        <v>0.003180849046313893</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>5.755183333333334</v>
+      </c>
+      <c r="H30">
+        <v>17.26555</v>
+      </c>
+      <c r="I30">
+        <v>0.1215432030155045</v>
+      </c>
+      <c r="J30">
+        <v>0.1215432030155045</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>15.33829433333333</v>
+      </c>
+      <c r="N30">
+        <v>46.014883</v>
+      </c>
+      <c r="O30">
+        <v>0.6933609738173031</v>
+      </c>
+      <c r="P30">
+        <v>0.693360973817303</v>
+      </c>
+      <c r="Q30">
+        <v>88.27469590896111</v>
+      </c>
+      <c r="R30">
+        <v>794.47226318065</v>
+      </c>
+      <c r="S30">
+        <v>0.08427331360370438</v>
+      </c>
+      <c r="T30">
+        <v>0.08427331360370437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>5.755183333333334</v>
+      </c>
+      <c r="H31">
+        <v>17.26555</v>
+      </c>
+      <c r="I31">
+        <v>0.1215432030155045</v>
+      </c>
+      <c r="J31">
+        <v>0.1215432030155045</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.433359</v>
+      </c>
+      <c r="N31">
+        <v>4.300077</v>
+      </c>
+      <c r="O31">
+        <v>0.0647943748158479</v>
+      </c>
+      <c r="P31">
+        <v>0.06479437481584789</v>
+      </c>
+      <c r="Q31">
+        <v>8.249243827483335</v>
+      </c>
+      <c r="R31">
+        <v>74.24319444735001</v>
+      </c>
+      <c r="S31">
+        <v>0.007875315852505295</v>
+      </c>
+      <c r="T31">
+        <v>0.007875315852505293</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>16.43173766666667</v>
+      </c>
+      <c r="H32">
+        <v>49.295213</v>
+      </c>
+      <c r="I32">
+        <v>0.3470204008184817</v>
+      </c>
+      <c r="J32">
+        <v>0.3470204008184816</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.727027666666667</v>
+      </c>
+      <c r="N32">
+        <v>11.181083</v>
+      </c>
+      <c r="O32">
+        <v>0.1684786767188367</v>
+      </c>
+      <c r="P32">
+        <v>0.1684786767188367</v>
+      </c>
+      <c r="Q32">
+        <v>61.24154089507545</v>
+      </c>
+      <c r="R32">
+        <v>551.173868055679</v>
+      </c>
+      <c r="S32">
+        <v>0.0584655379243381</v>
+      </c>
+      <c r="T32">
+        <v>0.05846553792433808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>16.43173766666667</v>
+      </c>
+      <c r="H33">
+        <v>49.295213</v>
+      </c>
+      <c r="I33">
+        <v>0.3470204008184817</v>
+      </c>
+      <c r="J33">
+        <v>0.3470204008184816</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.5869133333333334</v>
+      </c>
+      <c r="N33">
+        <v>1.76074</v>
+      </c>
+      <c r="O33">
+        <v>0.02653116386363687</v>
+      </c>
+      <c r="P33">
+        <v>0.02653116386363686</v>
+      </c>
+      <c r="Q33">
+        <v>9.644005926402224</v>
+      </c>
+      <c r="R33">
+        <v>86.79605333762001</v>
+      </c>
+      <c r="S33">
+        <v>0.009206855118140084</v>
+      </c>
+      <c r="T33">
+        <v>0.009206855118140079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>16.43173766666667</v>
+      </c>
+      <c r="H34">
+        <v>49.295213</v>
+      </c>
+      <c r="I34">
+        <v>0.3470204008184817</v>
+      </c>
+      <c r="J34">
+        <v>0.3470204008184816</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.4571283333333334</v>
+      </c>
+      <c r="N34">
+        <v>1.371385</v>
+      </c>
+      <c r="O34">
+        <v>0.02066428896664678</v>
+      </c>
+      <c r="P34">
+        <v>0.02066428896664677</v>
+      </c>
+      <c r="Q34">
+        <v>7.51141285333389</v>
+      </c>
+      <c r="R34">
+        <v>67.60271568000501</v>
+      </c>
+      <c r="S34">
+        <v>0.007170929839834694</v>
+      </c>
+      <c r="T34">
+        <v>0.00717092983983469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>16.43173766666667</v>
+      </c>
+      <c r="H35">
+        <v>49.295213</v>
+      </c>
+      <c r="I35">
+        <v>0.3470204008184817</v>
+      </c>
+      <c r="J35">
+        <v>0.3470204008184816</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.5789353333333332</v>
+      </c>
+      <c r="N35">
+        <v>1.736806</v>
+      </c>
+      <c r="O35">
+        <v>0.02617052181772873</v>
+      </c>
+      <c r="P35">
+        <v>0.02617052181772873</v>
+      </c>
+      <c r="Q35">
+        <v>9.512913523297554</v>
+      </c>
+      <c r="R35">
+        <v>85.61622170967799</v>
+      </c>
+      <c r="S35">
+        <v>0.009081704970817044</v>
+      </c>
+      <c r="T35">
+        <v>0.009081704970817041</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>16.43173766666667</v>
+      </c>
+      <c r="H36">
+        <v>49.295213</v>
+      </c>
+      <c r="I36">
+        <v>0.3470204008184817</v>
+      </c>
+      <c r="J36">
+        <v>0.3470204008184816</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>15.33829433333333</v>
+      </c>
+      <c r="N36">
+        <v>46.014883</v>
+      </c>
+      <c r="O36">
+        <v>0.6933609738173031</v>
+      </c>
+      <c r="P36">
+        <v>0.693360973817303</v>
+      </c>
+      <c r="Q36">
+        <v>252.0348287394532</v>
+      </c>
+      <c r="R36">
+        <v>2268.313458655079</v>
+      </c>
+      <c r="S36">
+        <v>0.2406104030459733</v>
+      </c>
+      <c r="T36">
+        <v>0.2406104030459732</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>16.43173766666667</v>
+      </c>
+      <c r="H37">
+        <v>49.295213</v>
+      </c>
+      <c r="I37">
+        <v>0.3470204008184817</v>
+      </c>
+      <c r="J37">
+        <v>0.3470204008184816</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.433359</v>
+      </c>
+      <c r="N37">
+        <v>4.300077</v>
+      </c>
+      <c r="O37">
+        <v>0.0647943748158479</v>
+      </c>
+      <c r="P37">
+        <v>0.06479437481584789</v>
+      </c>
+      <c r="Q37">
+        <v>23.55257907015567</v>
+      </c>
+      <c r="R37">
+        <v>211.973211631401</v>
+      </c>
+      <c r="S37">
+        <v>0.02248496991937848</v>
+      </c>
+      <c r="T37">
+        <v>0.02248496991937847</v>
       </c>
     </row>
   </sheetData>
